--- a/data/Unicrypt/Unicrypt20140101.xlsx
+++ b/data/Unicrypt/Unicrypt20140101.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
